--- a/Qualitaetsmatrix/Qualitaetsmatrix.xlsx
+++ b/Qualitaetsmatrix/Qualitaetsmatrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
   <si>
     <t>Functional Stability</t>
   </si>
@@ -40,10 +40,10 @@
     <t>/</t>
   </si>
   <si>
+    <t>&lt;</t>
+  </si>
+  <si>
     <t>^</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -317,6 +317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -361,176 +362,235 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>